--- a/extracted_growth_equity/amfeb2025repo_growth_equity.xlsx
+++ b/extracted_growth_equity/amfeb2025repo_growth_equity.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,163 +434,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Growth/Equity Oriented Schemes</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sr </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scheme Name </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Schemes as on February 28, 2025</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Folios as on February 28, 2025</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Funds Mobilized for the month of February 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Repurchase/ Redemption for the month of February 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Net Inflow (+ve)/Outflow (-ve) for the month of February 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Net Assets Under Management as on February 28, 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Average Net Assets Under Management for the month February 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>No. of segregated portfolios created as on February 28, 2025</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Net Assets Under Management in segregated portfolio as on February 28, 2025 (INR in crore)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multi Cap Fund</t>
+          <t>Growth/Equity Oriented Schemes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9333418</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4428.89902338</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1911.21268462</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2517.68633876</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>161176.44843298</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>169272.44023797</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ii</t>
+          <t>i</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Large Cap Fund</t>
+          <t>Multi Cap Fund</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15864041</t>
+          <t>9333418</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5309.18728943</t>
+          <t>4428.89902338</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2443.18915095001</t>
+          <t>1911.21268462</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2865.99813848</t>
+          <t>2517.68633876</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>335387.54724984</t>
+          <t>161176.44843298</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>349572.70418438</t>
+          <t>169272.44023797</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -595,47 +607,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iii</t>
+          <t>ii</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Large &amp; Mid Cap Fund</t>
+          <t>Large Cap Fund</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11709986</t>
+          <t>15864041</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4537.39860855</t>
+          <t>5309.18728943</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1881.43006462</t>
+          <t>2443.18915095001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2655.96854393</t>
+          <t>2865.99813848</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>242809.17305067</t>
+          <t>335387.54724984</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>254938.73409616</t>
+          <t>349572.70418438</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -652,47 +664,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>iv</t>
+          <t>iii</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mid Cap Fund</t>
+          <t>Large &amp; Mid Cap Fund</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20822194</t>
+          <t>11709986</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6636.62686246001</t>
+          <t>4537.39860855</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3229.6807497</t>
+          <t>1881.43006462</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3406.94611276</t>
+          <t>2655.96854393</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>340656.69500112</t>
+          <t>242809.17305067</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>360862.17974381</t>
+          <t>254938.73409616</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -709,47 +721,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>iv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Small Cap Fund</t>
+          <t>Mid Cap Fund</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24828591</t>
+          <t>20822194</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7033.57305446001</t>
+          <t>6636.62686246001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3311.11126966</t>
+          <t>3229.6807497</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3722.46178480001</t>
+          <t>3406.94611276</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>273877.20754382</t>
+          <t>340656.69500112</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>293136.32110885</t>
+          <t>360862.17974381</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -766,47 +778,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>v</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dividend Yield Fund</t>
+          <t>Small Cap Fund</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1192022</t>
+          <t>24828591</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>367.648783350001</t>
+          <t>7033.57305446001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>298.99971809</t>
+          <t>3311.11126966</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>68.6490652600014</t>
+          <t>3722.46178480001</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>28674.16777958</t>
+          <t>273877.20754382</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30157.96021681</t>
+          <t>293136.32110885</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -823,47 +835,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vii</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Value Fund/Contra Fund</t>
+          <t>Dividend Yield Fund</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8178379</t>
+          <t>1192022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2551.05731973</t>
+          <t>367.648783350001</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1203.63775077</t>
+          <t>298.99971809</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1347.41956896</t>
+          <t>68.6490652600014</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>171918.92660215</t>
+          <t>28674.16777958</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>179683.96437703</t>
+          <t>30157.96021681</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -880,47 +892,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>viii</t>
+          <t>vii</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Focused Fund</t>
+          <t>Value Fund/Contra Fund</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5197937</t>
+          <t>8178379</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2319.13479769</t>
+          <t>2551.05731973</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1031.41884183</t>
+          <t>1203.63775077</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1287.71595586</t>
+          <t>1347.41956896</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>135017.5088671</t>
+          <t>171918.92660215</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>140686.76792019</t>
+          <t>179683.96437703</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -937,47 +949,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ix</t>
+          <t>viii</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sectoral/Thematic Funds</t>
+          <t>Focused Fund</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30656958</t>
+          <t>5197937</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11463.18338951</t>
+          <t>2319.13479769</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5751.60694283</t>
+          <t>1031.41884183</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5711.57644668</t>
+          <t>1287.71595586</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>427155.59010881</t>
+          <t>135017.5088671</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>449050.7305084</t>
+          <t>140686.76792019</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -994,47 +1006,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>ix</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ELSS</t>
+          <t>Sectoral/Thematic Funds</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16975832</t>
+          <t>30656958</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1837.48082798</t>
+          <t>11463.18338951</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1222.77904397</t>
+          <t>5751.60694283</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>614.701784009998</t>
+          <t>5711.57644668</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>216623.2493263</t>
+          <t>427155.59010881</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>227241.5382008</t>
+          <t>449050.7305084</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1051,47 +1063,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xi</t>
+          <t>x</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flexi Cap Fund</t>
+          <t>ELSS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17615393</t>
+          <t>16975832</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7944.77928563001</t>
+          <t>1837.48082798</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2840.5612082</t>
+          <t>1222.77904397</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5104.21807743001</t>
+          <t>614.701784009998</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>406429.74539597</t>
+          <t>216623.2493263</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>422860.01695826</t>
+          <t>227241.5382008</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1108,55 +1120,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>xi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17615393</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7944.77928563001</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2840.5612082</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5104.21807743001</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>406429.74539597</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>422860.01695826</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sub Total - II (i+ii+iii+iv+v+vi+vii+viii+ix+x+xi)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>162374751</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>54428.969242170024</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>25125.627425240007</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>29303.34181693002</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>2739726.25935834</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>2877463.3575526597</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
